--- a/ID & tshirts/ELESA 2019-20 (Final).xlsx
+++ b/ID & tshirts/ELESA 2019-20 (Final).xlsx
@@ -12,13 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Total List" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form responses 1'!$A$1:$L$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Total List'!$A$1:$L$52</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="279">
   <si>
     <t>Timestamp</t>
   </si>
@@ -869,6 +868,21 @@
   </si>
   <si>
     <t>Assistant aptitude devoleper</t>
+  </si>
+  <si>
+    <t>Anushka A.Munde</t>
+  </si>
+  <si>
+    <t>Parli-vaijnath , Beed.</t>
+  </si>
+  <si>
+    <t>Walchand college of engineering, sangli</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=12awoWfOnyvkXzllVFAOFDwWHBzOSN8gl</t>
+  </si>
+  <si>
+    <t>Asst. Event director</t>
   </si>
 </sst>
 </file>
@@ -1292,19 +1306,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5546875" customWidth="1"/>
     <col min="2" max="2" width="34.109375" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="17" width="21.5546875" customWidth="1"/>
+    <col min="3" max="5" width="21.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="17" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1315,16 +1330,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1350,16 +1365,16 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
@@ -1385,16 +1400,16 @@
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>25</v>
@@ -1420,16 +1435,16 @@
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>32</v>
@@ -1452,16 +1467,16 @@
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>38</v>
@@ -1487,16 +1502,16 @@
         <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>47</v>
@@ -1522,16 +1537,16 @@
         <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>54</v>
@@ -1554,16 +1569,16 @@
         <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>60</v>
@@ -1583,16 +1598,16 @@
         <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>65</v>
@@ -1618,16 +1633,16 @@
         <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>69</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>70</v>
@@ -1647,16 +1662,16 @@
         <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>74</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>75</v>
@@ -1679,16 +1694,16 @@
         <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>81</v>
@@ -1711,16 +1726,16 @@
         <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>86</v>
@@ -1743,16 +1758,16 @@
         <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>92</v>
@@ -1772,16 +1787,16 @@
         <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>97</v>
@@ -1807,16 +1822,16 @@
         <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>103</v>
@@ -1836,16 +1851,16 @@
         <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>110</v>
@@ -1868,16 +1883,16 @@
         <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>115</v>
@@ -1900,16 +1915,16 @@
         <v>116</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>120</v>
@@ -1929,16 +1944,16 @@
         <v>121</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>70</v>
@@ -1958,16 +1973,16 @@
         <v>131</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>135</v>
@@ -1993,16 +2008,16 @@
         <v>136</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>32</v>
@@ -2025,16 +2040,16 @@
         <v>145</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>70</v>
@@ -2054,16 +2069,16 @@
         <v>149</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>152</v>
@@ -2083,16 +2098,16 @@
         <v>153</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>157</v>
@@ -2112,16 +2127,16 @@
         <v>158</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>162</v>
@@ -2147,16 +2162,16 @@
         <v>164</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>168</v>
@@ -2176,16 +2191,16 @@
         <v>169</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>173</v>
@@ -2205,16 +2220,16 @@
         <v>174</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>178</v>
@@ -2237,16 +2252,16 @@
         <v>179</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>183</v>
@@ -2266,16 +2281,16 @@
         <v>184</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>135</v>
@@ -2298,16 +2313,16 @@
         <v>188</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>192</v>
@@ -2327,16 +2342,16 @@
         <v>198</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>16</v>
@@ -2359,16 +2374,16 @@
         <v>244</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>248</v>
@@ -2388,16 +2403,16 @@
         <v>249</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>253</v>
@@ -2417,16 +2432,16 @@
         <v>205</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>209</v>
@@ -2449,16 +2464,16 @@
         <v>211</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>215</v>
@@ -2484,16 +2499,16 @@
         <v>217</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>221</v>
@@ -2519,16 +2534,16 @@
         <v>224</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>120</v>
@@ -2548,16 +2563,16 @@
         <v>228</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>232</v>
@@ -2577,16 +2592,16 @@
         <v>233</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>183</v>
@@ -2606,16 +2621,16 @@
         <v>237</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>239</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>240</v>
@@ -2635,16 +2650,16 @@
         <v>254</v>
       </c>
       <c r="C43" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="F43" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>257</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>258</v>
@@ -2672,16 +2687,16 @@
         <v>259</v>
       </c>
       <c r="C44" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="F44" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>262</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>263</v>
@@ -2709,16 +2724,16 @@
         <v>264</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="D45" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="E45" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F45" s="27" t="s">
+      <c r="E45" s="27" t="s">
         <v>266</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>267</v>
@@ -2748,16 +2763,16 @@
         <v>269</v>
       </c>
       <c r="C46" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="F46" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>272</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>273</v>
@@ -2777,213 +2792,246 @@
       <c r="P46" s="26"/>
       <c r="Q46" s="26"/>
     </row>
-    <row r="47" spans="1:17" s="24" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="21">
+    <row r="47" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>43662.223889039349</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="1">
+        <v>919710298993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="24" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="21">
         <v>43619.653194247687</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B48" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C48" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G47" s="22" t="s">
+      <c r="G48" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H48" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I47" s="22" t="s">
+      <c r="I48" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="K47" s="22" t="s">
+      <c r="K48" s="22" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+    <row r="49" spans="1:11" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>43659.318789988421</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G48" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I49" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+    <row r="50" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
         <v>43609.674253020828</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B50" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G49" s="9" t="s">
+      <c r="G50" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H50" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I50" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
+    <row r="51" spans="1:11" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
         <v>43660.638141921299</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B51" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C51" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="F51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="G50" s="18" t="s">
+      <c r="G51" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H50" s="18" t="s">
+      <c r="H51" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="18" t="s">
+      <c r="I51" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+    <row r="52" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
         <v>43609.59471070602</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B52" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G51" s="13" t="s">
+      <c r="G52" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H52" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I51" s="13" t="s">
+      <c r="I52" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="13" t="s">
+      <c r="K52" s="13" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L51"/>
+  <autoFilter ref="A1:L46"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F19" r:id="rId18"/>
-    <hyperlink ref="F20" r:id="rId19"/>
-    <hyperlink ref="F51" r:id="rId20"/>
-    <hyperlink ref="F21" r:id="rId21"/>
-    <hyperlink ref="F22" r:id="rId22"/>
-    <hyperlink ref="F23" r:id="rId23"/>
-    <hyperlink ref="F24" r:id="rId24"/>
-    <hyperlink ref="F25" r:id="rId25"/>
-    <hyperlink ref="F26" r:id="rId26"/>
-    <hyperlink ref="F27" r:id="rId27"/>
-    <hyperlink ref="F28" r:id="rId28"/>
-    <hyperlink ref="F29" r:id="rId29"/>
-    <hyperlink ref="F30" r:id="rId30"/>
-    <hyperlink ref="F31" r:id="rId31"/>
-    <hyperlink ref="F32" r:id="rId32"/>
-    <hyperlink ref="F33" r:id="rId33"/>
-    <hyperlink ref="F48" r:id="rId34"/>
-    <hyperlink ref="F36" r:id="rId35"/>
-    <hyperlink ref="F37" r:id="rId36"/>
-    <hyperlink ref="F38" r:id="rId37"/>
-    <hyperlink ref="F39" r:id="rId38"/>
-    <hyperlink ref="F40" r:id="rId39"/>
-    <hyperlink ref="F41" r:id="rId40"/>
-    <hyperlink ref="F42" r:id="rId41"/>
-    <hyperlink ref="F50" r:id="rId42"/>
-    <hyperlink ref="F34" r:id="rId43"/>
-    <hyperlink ref="F35" r:id="rId44"/>
-    <hyperlink ref="F49" r:id="rId45"/>
-    <hyperlink ref="F47" r:id="rId46"/>
-    <hyperlink ref="F43" r:id="rId47"/>
-    <hyperlink ref="F44" r:id="rId48"/>
-    <hyperlink ref="F45" r:id="rId49"/>
-    <hyperlink ref="F46" r:id="rId50"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E52" r:id="rId20"/>
+    <hyperlink ref="E21" r:id="rId21"/>
+    <hyperlink ref="E22" r:id="rId22"/>
+    <hyperlink ref="E23" r:id="rId23"/>
+    <hyperlink ref="E24" r:id="rId24"/>
+    <hyperlink ref="E25" r:id="rId25"/>
+    <hyperlink ref="E26" r:id="rId26"/>
+    <hyperlink ref="E27" r:id="rId27"/>
+    <hyperlink ref="E28" r:id="rId28"/>
+    <hyperlink ref="E29" r:id="rId29"/>
+    <hyperlink ref="E30" r:id="rId30"/>
+    <hyperlink ref="E31" r:id="rId31"/>
+    <hyperlink ref="E32" r:id="rId32"/>
+    <hyperlink ref="E33" r:id="rId33"/>
+    <hyperlink ref="E49" r:id="rId34"/>
+    <hyperlink ref="E36" r:id="rId35"/>
+    <hyperlink ref="E37" r:id="rId36"/>
+    <hyperlink ref="E38" r:id="rId37"/>
+    <hyperlink ref="E39" r:id="rId38"/>
+    <hyperlink ref="E40" r:id="rId39"/>
+    <hyperlink ref="E41" r:id="rId40"/>
+    <hyperlink ref="E42" r:id="rId41"/>
+    <hyperlink ref="E51" r:id="rId42"/>
+    <hyperlink ref="E34" r:id="rId43"/>
+    <hyperlink ref="E35" r:id="rId44"/>
+    <hyperlink ref="E50" r:id="rId45"/>
+    <hyperlink ref="E48" r:id="rId46"/>
+    <hyperlink ref="E43" r:id="rId47"/>
+    <hyperlink ref="E44" r:id="rId48"/>
+    <hyperlink ref="E45" r:id="rId49"/>
+    <hyperlink ref="E46" r:id="rId50"/>
+    <hyperlink ref="E47" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId51"/>
-  <legacyDrawing r:id="rId52"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId52"/>
+  <legacyDrawing r:id="rId53"/>
 </worksheet>
 </file>
--- a/ID & tshirts/ELESA 2019-20 (Final).xlsx
+++ b/ID & tshirts/ELESA 2019-20 (Final).xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="284">
   <si>
     <t>Timestamp</t>
   </si>
@@ -883,6 +883,21 @@
   </si>
   <si>
     <t>Asst. Event director</t>
+  </si>
+  <si>
+    <t>Pranav Madhav Katkade</t>
+  </si>
+  <si>
+    <t>Flat no. 10, Balkrishna appt, Hanumanwadi, Panvhavati, Nashik, 422 003.</t>
+  </si>
+  <si>
+    <t>Above Mota Varieties, Vishrambag, Sangli</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=17PgtFUQbsMlfV1t-EGzPLJKCo2WMAxlL</t>
+  </si>
+  <si>
+    <t>No comments</t>
   </si>
 </sst>
 </file>
@@ -1306,11 +1321,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2856,7 +2871,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43659.318789988421</v>
       </c>
@@ -2885,7 +2900,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>43609.674253020828</v>
       </c>
@@ -2914,7 +2929,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>43660.638141921299</v>
       </c>
@@ -2943,7 +2958,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>43609.59471070602</v>
       </c>
@@ -2974,6 +2989,45 @@
       <c r="K52" s="13" t="s">
         <v>130</v>
       </c>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="25">
+        <v>43662.37667824074</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L46"/>
@@ -3029,9 +3083,10 @@
     <hyperlink ref="E45" r:id="rId49"/>
     <hyperlink ref="E46" r:id="rId50"/>
     <hyperlink ref="E47" r:id="rId51"/>
+    <hyperlink ref="E53" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId52"/>
-  <legacyDrawing r:id="rId53"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId53"/>
+  <legacyDrawing r:id="rId54"/>
 </worksheet>
 </file>